--- a/output/fit_clients/fit_round_336.xlsx
+++ b/output/fit_clients/fit_round_336.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1899048447.00149</v>
+        <v>1980968008.327592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08969485065503859</v>
+        <v>0.08594391669918364</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03941295360062402</v>
+        <v>0.03527204413038456</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>949524205.5576531</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1985693647.311155</v>
+        <v>1896061074.225796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1559208121513531</v>
+        <v>0.1298773438774223</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03576245704960746</v>
+        <v>0.03191586527151848</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>992846861.501189</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3811706366.828677</v>
+        <v>3452787637.274871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1423277548733649</v>
+        <v>0.1021446223823862</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0252287349254693</v>
+        <v>0.02934879381535435</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1905853184.261268</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2731842914.224249</v>
+        <v>3099919464.283132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07125297345749938</v>
+        <v>0.0847275074367945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03121249363451111</v>
+        <v>0.04665541301847503</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1365921544.73205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2086536431.262363</v>
+        <v>2102637016.808945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1206359000441839</v>
+        <v>0.0918355776104591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04225041885464961</v>
+        <v>0.04769557441590499</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1043268235.869042</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2477035943.288094</v>
+        <v>2322759102.381467</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09926046609980686</v>
+        <v>0.08800416265569201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03005992523046432</v>
+        <v>0.04378670001042715</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1238517986.939713</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3681654379.063232</v>
+        <v>3742160683.886973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1954667236334222</v>
+        <v>0.1381355516039217</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02366299957100406</v>
+        <v>0.03068150772646384</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>107</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1840827316.735905</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2071585940.407097</v>
+        <v>1718235449.588268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1979224930969862</v>
+        <v>0.1709466196696732</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03410601090725775</v>
+        <v>0.02792171623555854</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1035792986.893466</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5879390218.01237</v>
+        <v>5488716907.29977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1712552206414523</v>
+        <v>0.1974802799953468</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04780325743797042</v>
+        <v>0.05364351400371077</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>141</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2939695276.40004</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2847892451.8084</v>
+        <v>3504891556.168865</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707726354103766</v>
+        <v>0.1279378374817925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0377145873473719</v>
+        <v>0.03018016488572011</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>139</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1423946158.291661</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2351755885.597666</v>
+        <v>3030642123.786318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1301856733909409</v>
+        <v>0.1802205028309032</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05196726555902857</v>
+        <v>0.04337293304951979</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>115</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1175877901.458734</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4676933515.046662</v>
+        <v>4960574423.28805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09250036290095419</v>
+        <v>0.1014913114093376</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01931931718842326</v>
+        <v>0.01992528094183668</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>112</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2338466778.072361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3824101535.418762</v>
+        <v>2443421263.537534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1636408281061326</v>
+        <v>0.1704843732330604</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03489151177311134</v>
+        <v>0.02921910488708369</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1912050742.472225</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1589138799.797853</v>
+        <v>1257757392.752614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08266608794518954</v>
+        <v>0.1052148539999187</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04933498300392758</v>
+        <v>0.04557989501133921</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>794569505.6137998</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2242222412.721664</v>
+        <v>2034728168.041393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07825617051225056</v>
+        <v>0.1026151788969889</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05109885130694392</v>
+        <v>0.03605084324773868</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1121111260.225447</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4383778297.463373</v>
+        <v>4276641678.363898</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1308874871336247</v>
+        <v>0.109738667013822</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04166799753026076</v>
+        <v>0.04667873427022424</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2191889164.388142</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2576766288.434551</v>
+        <v>3551919251.509191</v>
       </c>
       <c r="F18" t="n">
-        <v>0.160319684599304</v>
+        <v>0.1187923204548627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03114137673093753</v>
+        <v>0.03177295273097156</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>110</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1288383205.130517</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>878443277.5278614</v>
+        <v>1052333967.26526</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1829790011264128</v>
+        <v>0.1209577288411642</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01787351242541145</v>
+        <v>0.02460550825851059</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>439221638.4145912</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1942959298.164376</v>
+        <v>2240255016.068751</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1582123495488421</v>
+        <v>0.1355330945847915</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02516810996434906</v>
+        <v>0.02533996936874841</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>44</v>
-      </c>
-      <c r="J20" t="n">
-        <v>971479681.4967626</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2276228540.477586</v>
+        <v>1927540295.545885</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08451811480853198</v>
+        <v>0.06873152022220957</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03785422632169745</v>
+        <v>0.04552944451820601</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1138114279.77566</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3488867330.645053</v>
+        <v>3674520917.771826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181634068665093</v>
+        <v>0.09377776381387259</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0558714585123185</v>
+        <v>0.0514321165214152</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1744433697.583767</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1503727570.166602</v>
+        <v>1042801171.255199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1118297604295314</v>
+        <v>0.1122182897070783</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05006443386632832</v>
+        <v>0.04457524329480132</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>751863770.3947761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3201233214.315645</v>
+        <v>3176249191.141732</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09800793276772846</v>
+        <v>0.1037678556101336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02804850297195828</v>
+        <v>0.0288059789335814</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1600616628.875723</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1264687157.102551</v>
+        <v>1271457905.093917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1093084329989438</v>
+        <v>0.08836308980939048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02820009984668906</v>
+        <v>0.02579814219730385</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>632343581.6479985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1325791063.279674</v>
+        <v>914017752.5880198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1106695499772697</v>
+        <v>0.1138618142462891</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02438538173422297</v>
+        <v>0.02580487682003645</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>662895583.4381417</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4617377522.793813</v>
+        <v>3000161349.978389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1188363244740842</v>
+        <v>0.1376710841871429</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01672035134082375</v>
+        <v>0.01726784264281345</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2308688740.876136</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2366044457.677649</v>
+        <v>3417569440.840088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1161146538941205</v>
+        <v>0.1099872315869649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03085035150250796</v>
+        <v>0.04015102728252017</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>108</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1183022185.040091</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4072775643.205671</v>
+        <v>5467218588.46279</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1261984977271131</v>
+        <v>0.09671453746557809</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04192973500029609</v>
+        <v>0.03057482381977334</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>148</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2036387833.463294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2347451764.049402</v>
+        <v>1939630479.207408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1147204460376669</v>
+        <v>0.09120222265449802</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04011186265659698</v>
+        <v>0.02436536457758863</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1173725959.093509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1278047521.41338</v>
+        <v>939483547.7071072</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08355952491656105</v>
+        <v>0.1048080099285489</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04379593693389211</v>
+        <v>0.0433202938175867</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>639023693.8102053</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1366735669.697713</v>
+        <v>1602509189.445923</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07991145631128398</v>
+        <v>0.1167889190188306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03865178376350918</v>
+        <v>0.02968876226278272</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>683367875.6121396</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2398382451.00771</v>
+        <v>2583395490.129735</v>
       </c>
       <c r="F33" t="n">
-        <v>0.160110065611707</v>
+        <v>0.1807917461453241</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04177714081562571</v>
+        <v>0.05060194209699446</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1199191272.375023</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1483715564.744034</v>
+        <v>1355554019.861009</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1150386763396503</v>
+        <v>0.1119439734305819</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02030622795715294</v>
+        <v>0.02705279654785565</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>741857740.9108789</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1240630077.76909</v>
+        <v>1197907084.170723</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09117875551240695</v>
+        <v>0.08534289603830286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0312425269709814</v>
+        <v>0.03926322833179387</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>620315004.7014294</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2160180386.44919</v>
+        <v>2530373803.398621</v>
       </c>
       <c r="F36" t="n">
-        <v>0.157804512420082</v>
+        <v>0.1139336346875366</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02403176644674936</v>
+        <v>0.02428235203114201</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>84</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1080090242.446365</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2479864415.216764</v>
+        <v>2808206291.076017</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0960245812115447</v>
+        <v>0.1001129888068374</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0284638559487536</v>
+        <v>0.03434478791038285</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1239932300.897789</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2180850163.225138</v>
+        <v>1547529605.908269</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08438077916054434</v>
+        <v>0.08399243619412051</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02903848928531086</v>
+        <v>0.03941329678857187</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1090425034.699657</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1544042465.369055</v>
+        <v>1566512616.910803</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1260281534080465</v>
+        <v>0.1441877927962208</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03018829458056987</v>
+        <v>0.02349465712394208</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>772021296.4476551</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1316484195.078848</v>
+        <v>1177005341.825934</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1570817871642433</v>
+        <v>0.1010949357097878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.056921519487748</v>
+        <v>0.03826830128962019</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>658242109.6838496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2247284048.131381</v>
+        <v>2617512171.212674</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1034095595083006</v>
+        <v>0.1239546699987642</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04008282847053131</v>
+        <v>0.03503796604009243</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>85</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1123642074.092748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3455715935.395601</v>
+        <v>4145355415.207283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07785917375618916</v>
+        <v>0.1268432502796918</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03579556811825573</v>
+        <v>0.03927259996545478</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>111</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1727857959.515944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2708491876.159362</v>
+        <v>2108920203.670622</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1916768479260951</v>
+        <v>0.1800375281386136</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02243472663452841</v>
+        <v>0.02290962827573257</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>121</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1354245965.789222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839861155.941981</v>
+        <v>2047182165.981127</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06549994881979362</v>
+        <v>0.1021852796451345</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02363026640094368</v>
+        <v>0.03620225625512633</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>919930652.3562717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642231106.253679</v>
+        <v>2461869344.218054</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1423927838123331</v>
+        <v>0.1496253587897624</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04514497201388515</v>
+        <v>0.04583647938636271</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>821115507.9773192</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3443462439.112998</v>
+        <v>4870473911.444263</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1763976752967059</v>
+        <v>0.1287045243995885</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05349352014660988</v>
+        <v>0.04558263614198024</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>119</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1721731157.229198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4363179988.860607</v>
+        <v>4161544680.534216</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1404580221439864</v>
+        <v>0.1319009782244135</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0445404470909145</v>
+        <v>0.05643793393913166</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>90</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2181590014.130318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4517428723.426756</v>
+        <v>3948895793.861781</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07915509828081767</v>
+        <v>0.1041671235806981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03636498903729019</v>
+        <v>0.03579072835384234</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2258714366.004203</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1922449064.573871</v>
+        <v>1750878684.634058</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1608469985597066</v>
+        <v>0.1798644058193805</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03686742735035173</v>
+        <v>0.04209787051121345</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>961224498.6506603</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3831186118.922527</v>
+        <v>3439290174.519243</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1785119286896238</v>
+        <v>0.1598017856151343</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05242568677289706</v>
+        <v>0.04037266462936892</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>114</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1915593060.15632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1373450069.963651</v>
+        <v>1054306869.889242</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1519841229229018</v>
+        <v>0.1654380674375011</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04719128733395975</v>
+        <v>0.03393118946707437</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>686725058.4344172</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4268007771.42068</v>
+        <v>4917704783.64946</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09175598044069429</v>
+        <v>0.1380245610938685</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05635239668412632</v>
+        <v>0.05709224853440393</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>138</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2134003926.421177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2954878516.199625</v>
+        <v>3182868452.992386</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1765936329289469</v>
+        <v>0.1383334609848925</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02644956633557445</v>
+        <v>0.02423340924269507</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1477439293.68734</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4980123003.006919</v>
+        <v>3255611908.559635</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1134341677514411</v>
+        <v>0.1460523906525517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03452456000639738</v>
+        <v>0.05096028405593226</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2490061642.564623</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3735085388.637146</v>
+        <v>4611444730.537291</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1981935253275326</v>
+        <v>0.1672753743984784</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02202072716652085</v>
+        <v>0.02333700029713247</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1867542657.531334</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1685182245.444101</v>
+        <v>1220182474.881772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1337004379715851</v>
+        <v>0.1523243344538781</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05389968028817681</v>
+        <v>0.05361950248371412</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>842591137.5443114</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4131725714.413959</v>
+        <v>4571244916.469454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1501064041457817</v>
+        <v>0.1167919229870893</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02548821075879081</v>
+        <v>0.01954144605658668</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2065862956.642449</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1339807112.693001</v>
+        <v>1796031942.776009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1586806153232356</v>
+        <v>0.1958963981203886</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02509419851663314</v>
+        <v>0.03823972927418886</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>669903602.1201129</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4019429346.326056</v>
+        <v>5078757068.786044</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09131741567772879</v>
+        <v>0.08498637619820198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03359330149285532</v>
+        <v>0.04018234785311988</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2009714648.186389</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2318975935.04501</v>
+        <v>2497767455.537981</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1506839746235809</v>
+        <v>0.1290307022942034</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02497929029854723</v>
+        <v>0.02485774485364606</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1159487966.442277</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2062510092.568692</v>
+        <v>2550921640.307576</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1400377328488773</v>
+        <v>0.1225667686399882</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02398377904198709</v>
+        <v>0.02585669703947766</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1031255115.162626</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1783504916.250827</v>
+        <v>1402851807.808951</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1512591723498545</v>
+        <v>0.1190064319508151</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0359952512278091</v>
+        <v>0.03632878344606433</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>891752483.7337849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4429067748.178087</v>
+        <v>4208109429.983336</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06563669327288729</v>
+        <v>0.08631506004129004</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03804083739920698</v>
+        <v>0.03198456117551208</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2214533917.335859</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4762499715.492725</v>
+        <v>5335112745.512607</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1687848372733092</v>
+        <v>0.156153318908221</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03379295894279623</v>
+        <v>0.02924864682016218</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>104</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2381249947.244517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4481384185.219992</v>
+        <v>4795883668.74998</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1587675567302626</v>
+        <v>0.1395588060535067</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02464078377608341</v>
+        <v>0.02339657832949855</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>121</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2240692082.460595</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3508478760.866677</v>
+        <v>4611362845.780314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541724010450342</v>
+        <v>0.1195972910317164</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04743399652215825</v>
+        <v>0.05103798021647573</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1754239327.689183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3057710878.747868</v>
+        <v>2442780618.326336</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09931449648795863</v>
+        <v>0.08781142557387678</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04693375839883032</v>
+        <v>0.04360577239903338</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>108</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1528855452.725103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5974426147.762273</v>
+        <v>3875654568.986434</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1280658045853342</v>
+        <v>0.143238352231345</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04634807533570706</v>
+        <v>0.03397952451318315</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>108</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2987213189.329072</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2348449562.016896</v>
+        <v>2122153939.191521</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1621572366296393</v>
+        <v>0.1616838736895403</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05781564076321691</v>
+        <v>0.05022460689987498</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1174224831.010601</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3353178576.803946</v>
+        <v>2627640744.477494</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07305036065360873</v>
+        <v>0.0810435498164111</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04221698259864382</v>
+        <v>0.04861667547994882</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>96</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1676589288.455774</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3478842850.529216</v>
+        <v>4375056986.657891</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1846734589403172</v>
+        <v>0.1317523269075545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03102123951246886</v>
+        <v>0.03319516297770177</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>122</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1739421417.399453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1537737619.972902</v>
+        <v>2191645052.871176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08606868297482814</v>
+        <v>0.06856209154119049</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03286386395777347</v>
+        <v>0.05123104579454354</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>768868830.9079951</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2625603265.731302</v>
+        <v>2531185402.601766</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09950970361424401</v>
+        <v>0.08075504448509985</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04527703024623741</v>
+        <v>0.04045455203836569</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>128</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1312801663.122387</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2826925420.601727</v>
+        <v>2710945063.219226</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1170649368476887</v>
+        <v>0.1712105223271821</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03492104279114886</v>
+        <v>0.03553911172255129</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>114</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1413462790.665375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2026847340.279709</v>
+        <v>1601863621.49959</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1026552569823526</v>
+        <v>0.1569662791566783</v>
       </c>
       <c r="G75" t="n">
-        <v>0.029243541201006</v>
+        <v>0.0278216753155383</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1013423631.782042</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4932415297.197361</v>
+        <v>4535323020.391594</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08407216355140797</v>
+        <v>0.1132779005508683</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556653109617429</v>
+        <v>0.02967563010731237</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2466207672.442269</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2073425682.743016</v>
+        <v>1695199285.723269</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1381601175559133</v>
+        <v>0.1484555818304976</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02444086355953871</v>
+        <v>0.02876120138411833</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1036712913.77959</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4653060566.492081</v>
+        <v>4810062228.956622</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1245910539851442</v>
+        <v>0.1149774722980345</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04275826501379148</v>
+        <v>0.03861234497566428</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>116</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2326530202.243577</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1803745092.30469</v>
+        <v>1810906331.660151</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1652546560517746</v>
+        <v>0.1743922289431031</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03816051890760174</v>
+        <v>0.02989174180343596</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>901872633.4688224</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3585463564.204307</v>
+        <v>4017974843.49441</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1086455908843154</v>
+        <v>0.08962264825636301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0318069144257724</v>
+        <v>0.02578335178863423</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>70</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1792731760.975109</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4409086448.984739</v>
+        <v>4121621865.0388</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1023508259632168</v>
+        <v>0.1049691097193888</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03130749789140187</v>
+        <v>0.0329634848274326</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2204543202.876849</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238945930.577281</v>
+        <v>4596009889.6141</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2001473627738391</v>
+        <v>0.2074544450356362</v>
       </c>
       <c r="G82" t="n">
-        <v>0.021147196172857</v>
+        <v>0.02479101687278857</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>118</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2619472935.909225</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2241266132.051034</v>
+        <v>2164608901.039294</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1420571458063574</v>
+        <v>0.154474087046187</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0298996207249453</v>
+        <v>0.03419752802954711</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1120633081.390674</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1747813166.767333</v>
+        <v>1689737948.154121</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026094107060591</v>
+        <v>0.09055831612277314</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05116558000688071</v>
+        <v>0.03641030577049192</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>873906625.3739026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2286606102.587884</v>
+        <v>2452599470.219516</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1698905970071637</v>
+        <v>0.1230131348603141</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05491994124476659</v>
+        <v>0.03719538713862947</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1143303032.691434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2075416139.296496</v>
+        <v>2690697432.115273</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1242011829910697</v>
+        <v>0.1246575848103374</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01935574990833156</v>
+        <v>0.0259899068844064</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1037708107.774071</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1106310032.193736</v>
+        <v>1157861855.597514</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1315378971280268</v>
+        <v>0.1726602995097194</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0433570677476884</v>
+        <v>0.03714396119454508</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>553155047.6935402</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2940025296.406151</v>
+        <v>3552332780.660489</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1758407163519843</v>
+        <v>0.1336907193239341</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0304827249388139</v>
+        <v>0.02519633216445529</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>132</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1470012672.726005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3226934489.111549</v>
+        <v>2184421182.677622</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1106129246860453</v>
+        <v>0.09967539474058813</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03403319592337339</v>
+        <v>0.03169477387863155</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>114</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1613467266.038269</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2082223492.747426</v>
+        <v>2089774812.145687</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1228788653723225</v>
+        <v>0.1357380401057961</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05624551767232457</v>
+        <v>0.04122456082009334</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1041111831.658287</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1965995048.535238</v>
+        <v>1796755997.682286</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146071652481036</v>
+        <v>0.1818060508821824</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04856089844617459</v>
+        <v>0.06149872802954751</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>982997501.0967488</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2963933382.9918</v>
+        <v>2670084543.332422</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003658004375309</v>
+        <v>0.07245646008583759</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04519118294678656</v>
+        <v>0.02967858476336437</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>90</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1481966710.483273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4543156698.698455</v>
+        <v>5031925998.713907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1306201225491364</v>
+        <v>0.09189776919200016</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05091056804168304</v>
+        <v>0.03851417112893205</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2271578314.867169</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1647575771.50833</v>
+        <v>2205797445.361534</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1545613366717538</v>
+        <v>0.1580942485653363</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03105218524739909</v>
+        <v>0.02842701356477674</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>823787838.2104969</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3038978052.337959</v>
+        <v>2746630118.564718</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1159205730827191</v>
+        <v>0.1027640557010473</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0389082040777472</v>
+        <v>0.04279396456571562</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1519489023.103371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1815110933.359047</v>
+        <v>1795465168.165457</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1107684927272266</v>
+        <v>0.1362796605712235</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03975773623200159</v>
+        <v>0.04121409023990141</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>907555473.4121623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4433587866.451849</v>
+        <v>4960680646.627562</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1225364252694208</v>
+        <v>0.1181553171739838</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01807355071859463</v>
+        <v>0.02111519055296979</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2216794024.478109</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3114441035.039911</v>
+        <v>3884916159.834841</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1254715171099839</v>
+        <v>0.1123201878833324</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03177216668288017</v>
+        <v>0.03249615259910252</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1557220509.973405</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2956517560.210398</v>
+        <v>2963271951.361583</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473319949942037</v>
+        <v>0.105941538378699</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02476329489254702</v>
+        <v>0.03208778963368256</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>105</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1478258762.958858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3571131011.148454</v>
+        <v>4797595965.713753</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1257903385692046</v>
+        <v>0.1414388515764103</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02049708662111032</v>
+        <v>0.01773034339440503</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1785565542.026713</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3423378889.704323</v>
+        <v>3155349313.722577</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941316418885844</v>
+        <v>0.1683341781972775</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04088206012648019</v>
+        <v>0.05445193195734902</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>135</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1711689589.840835</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_336.xlsx
+++ b/output/fit_clients/fit_round_336.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1980968008.327592</v>
+        <v>2053785334.704746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08594391669918364</v>
+        <v>0.09870123674350817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03527204413038456</v>
+        <v>0.04239906324418652</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1896061074.225796</v>
+        <v>2601296266.620852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1298773438774223</v>
+        <v>0.1315002288294049</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03191586527151848</v>
+        <v>0.0380351370656341</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3452787637.274871</v>
+        <v>3523763915.571187</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1021446223823862</v>
+        <v>0.1356666307186096</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02934879381535435</v>
+        <v>0.02327103003348391</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3099919464.283132</v>
+        <v>3157411186.381824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0847275074367945</v>
+        <v>0.07565613834481642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04665541301847503</v>
+        <v>0.04052612774118295</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2102637016.808945</v>
+        <v>2334615138.624726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0918355776104591</v>
+        <v>0.1195757513257556</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04769557441590499</v>
+        <v>0.0436603915847712</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2322759102.381467</v>
+        <v>2695661275.805936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08800416265569201</v>
+        <v>0.09870812220129946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04378670001042715</v>
+        <v>0.03122669758797317</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742160683.886973</v>
+        <v>3082038121.635971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1381355516039217</v>
+        <v>0.1842510055734236</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03068150772646384</v>
+        <v>0.02826039568753859</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1718235449.588268</v>
+        <v>2047279148.308869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1709466196696732</v>
+        <v>0.1748117293150855</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02792171623555854</v>
+        <v>0.03214600088992692</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5488716907.29977</v>
+        <v>4906733065.899871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1974802799953468</v>
+        <v>0.1652475892615176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05364351400371077</v>
+        <v>0.04444740754721063</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3504891556.168865</v>
+        <v>2697105399.029497</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1279378374817925</v>
+        <v>0.19123099908566</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03018016488572011</v>
+        <v>0.04421557033609333</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3030642123.786318</v>
+        <v>2597366877.713452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1802205028309032</v>
+        <v>0.197610389016217</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04337293304951979</v>
+        <v>0.04928508251392779</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4960574423.28805</v>
+        <v>4650241045.688949</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1014913114093376</v>
+        <v>0.07816427181938829</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01992528094183668</v>
+        <v>0.03045752719961432</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2443421263.537534</v>
+        <v>3409994062.985028</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1704843732330604</v>
+        <v>0.1287227417340733</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02921910488708369</v>
+        <v>0.0414320179680211</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1257757392.752614</v>
+        <v>1708024610.972448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1052148539999187</v>
+        <v>0.09851696622797813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04557989501133921</v>
+        <v>0.04632795698808306</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2034728168.041393</v>
+        <v>2881528279.609954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1026151788969889</v>
+        <v>0.07841985641369201</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03605084324773868</v>
+        <v>0.03379810476400726</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4276641678.363898</v>
+        <v>3751146043.629138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.109738667013822</v>
+        <v>0.1312878502013065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04667873427022424</v>
+        <v>0.0354611967718922</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3551919251.509191</v>
+        <v>2902656930.659167</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1187923204548627</v>
+        <v>0.1576831586878527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03177295273097156</v>
+        <v>0.03044332460809874</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1052333967.26526</v>
+        <v>1171524460.087599</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1209577288411642</v>
+        <v>0.1688808047152566</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460550825851059</v>
+        <v>0.02346284466801484</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2240255016.068751</v>
+        <v>2090398073.926462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1355330945847915</v>
+        <v>0.1457982420019164</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02533996936874841</v>
+        <v>0.02908939110347323</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1927540295.545885</v>
+        <v>1783910363.511907</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06873152022220957</v>
+        <v>0.08020132808719153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04552944451820601</v>
+        <v>0.0426442138740141</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3674520917.771826</v>
+        <v>2660207824.925272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09377776381387259</v>
+        <v>0.1390148190384533</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0514321165214152</v>
+        <v>0.03621218490049905</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1042801171.255199</v>
+        <v>982221690.8316824</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1122182897070783</v>
+        <v>0.1809266523222441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04457524329480132</v>
+        <v>0.04992834005217579</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3176249191.141732</v>
+        <v>2585635582.38039</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1037678556101336</v>
+        <v>0.0994098803379983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0288059789335814</v>
+        <v>0.02591983195181552</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1271457905.093917</v>
+        <v>1410124501.980896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08836308980939048</v>
+        <v>0.07827390223577411</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02579814219730385</v>
+        <v>0.02784430858987524</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>914017752.5880198</v>
+        <v>904053270.787324</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138618142462891</v>
+        <v>0.1000417313713733</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02580487682003645</v>
+        <v>0.03472128741809244</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3000161349.978389</v>
+        <v>3987049695.921633</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1376710841871429</v>
+        <v>0.138730388564762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01726784264281345</v>
+        <v>0.02478570622622261</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3417569440.840088</v>
+        <v>3068068734.943802</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1099872315869649</v>
+        <v>0.1279404848892413</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04015102728252017</v>
+        <v>0.04120485361860069</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5467218588.46279</v>
+        <v>3592348666.444828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09671453746557809</v>
+        <v>0.1471824034116991</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03057482381977334</v>
+        <v>0.03295278411451107</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1939630479.207408</v>
+        <v>2282290564.763395</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09120222265449802</v>
+        <v>0.1283529458561002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02436536457758863</v>
+        <v>0.03592184324325685</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>939483547.7071072</v>
+        <v>1381618768.170193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048080099285489</v>
+        <v>0.07195426853423413</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0433202938175867</v>
+        <v>0.04999086485082061</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1602509189.445923</v>
+        <v>1878992010.188632</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167889190188306</v>
+        <v>0.1065254290529592</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02968876226278272</v>
+        <v>0.02375495275184907</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2583395490.129735</v>
+        <v>2654913273.736557</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1807917461453241</v>
+        <v>0.1749827930993126</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05060194209699446</v>
+        <v>0.0373683499343247</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1355554019.861009</v>
+        <v>1097340162.008547</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1119439734305819</v>
+        <v>0.09961825218736865</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02705279654785565</v>
+        <v>0.01762173782710124</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1197907084.170723</v>
+        <v>1038033100.838481</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08534289603830286</v>
+        <v>0.1029326719860182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03926322833179387</v>
+        <v>0.04241588779066257</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2530373803.398621</v>
+        <v>2556291787.171944</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1139336346875366</v>
+        <v>0.120591917858775</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02428235203114201</v>
+        <v>0.01774201570189632</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2808206291.076017</v>
+        <v>1796870728.886396</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1001129888068374</v>
+        <v>0.08275899461167757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03434478791038285</v>
+        <v>0.04195082214670973</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1547529605.908269</v>
+        <v>1584981361.64639</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08399243619412051</v>
+        <v>0.07394266605784813</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03941329678857187</v>
+        <v>0.0383066389459787</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1566512616.910803</v>
+        <v>2135723827.756144</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1441877927962208</v>
+        <v>0.1438460224539822</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02349465712394208</v>
+        <v>0.02745949006893282</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1177005341.825934</v>
+        <v>1559861125.71377</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1010949357097878</v>
+        <v>0.09997918194236549</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03826830128962019</v>
+        <v>0.05330873695442173</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2617512171.212674</v>
+        <v>1946243493.611855</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1239546699987642</v>
+        <v>0.1263325856177218</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03503796604009243</v>
+        <v>0.02917970716693146</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4145355415.207283</v>
+        <v>3616518976.414776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1268432502796918</v>
+        <v>0.1154039287374503</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03927259996545478</v>
+        <v>0.03708970167425234</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2108920203.670622</v>
+        <v>2163742509.119535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1800375281386136</v>
+        <v>0.1980542231998348</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02290962827573257</v>
+        <v>0.01867585686734662</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2047182165.981127</v>
+        <v>1671662030.086799</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1021852796451345</v>
+        <v>0.08140736513669067</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03620225625512633</v>
+        <v>0.02447885427496258</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2461869344.218054</v>
+        <v>1654238837.055465</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1496253587897624</v>
+        <v>0.1427108787273704</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04583647938636271</v>
+        <v>0.03796217230726311</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4870473911.444263</v>
+        <v>5720034564.851583</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1287045243995885</v>
+        <v>0.149228590041999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04558263614198024</v>
+        <v>0.03695351816525166</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4161544680.534216</v>
+        <v>4829796993.136945</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1319009782244135</v>
+        <v>0.1628743645548504</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05643793393913166</v>
+        <v>0.05893211968381578</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3948895793.861781</v>
+        <v>3025886172.555212</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1041671235806981</v>
+        <v>0.09696255384425269</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03579072835384234</v>
+        <v>0.0351964193812163</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1750878684.634058</v>
+        <v>1290877694.951231</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1798644058193805</v>
+        <v>0.1507569820048949</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04209787051121345</v>
+        <v>0.04152693331849284</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3439290174.519243</v>
+        <v>3233768063.367013</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1598017856151343</v>
+        <v>0.1757341832051607</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04037266462936892</v>
+        <v>0.04290057920466359</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1054306869.889242</v>
+        <v>940751241.962746</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1654380674375011</v>
+        <v>0.1330013364320389</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03393118946707437</v>
+        <v>0.04183418123117994</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4917704783.64946</v>
+        <v>4227302508.441287</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1380245610938685</v>
+        <v>0.1298114202890778</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05709224853440393</v>
+        <v>0.03863710810648519</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3182868452.992386</v>
+        <v>2820924092.229786</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1383334609848925</v>
+        <v>0.1484022074632205</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02423340924269507</v>
+        <v>0.0231661310834949</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3255611908.559635</v>
+        <v>4392577394.482079</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1460523906525517</v>
+        <v>0.1670433648016144</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05096028405593226</v>
+        <v>0.04003405025654522</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4611444730.537291</v>
+        <v>4482185677.794371</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1672753743984784</v>
+        <v>0.1769200648678218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02333700029713247</v>
+        <v>0.0215111691976825</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1220182474.881772</v>
+        <v>1342163340.600656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1523243344538781</v>
+        <v>0.1537515213914116</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05361950248371412</v>
+        <v>0.05022073450499576</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4571244916.469454</v>
+        <v>4028139471.407586</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1167919229870893</v>
+        <v>0.1815871394772714</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01954144605658668</v>
+        <v>0.02477816291700283</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796031942.776009</v>
+        <v>1332719238.968549</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1958963981203886</v>
+        <v>0.1359878825751114</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03823972927418886</v>
+        <v>0.0248962241762558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5078757068.786044</v>
+        <v>5130643210.444258</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08498637619820198</v>
+        <v>0.08222499242352821</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04018234785311988</v>
+        <v>0.03979413506454434</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2497767455.537981</v>
+        <v>2540246525.540605</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1290307022942034</v>
+        <v>0.1580271579927794</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02485774485364606</v>
+        <v>0.02178513694495293</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2550921640.307576</v>
+        <v>2490653451.912985</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1225667686399882</v>
+        <v>0.1490955309208822</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02585669703947766</v>
+        <v>0.02693204960251478</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1402851807.808951</v>
+        <v>1982353646.231308</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1190064319508151</v>
+        <v>0.1564061924160958</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03632878344606433</v>
+        <v>0.04049790661456027</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4208109429.983336</v>
+        <v>3905209229.727097</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08631506004129004</v>
+        <v>0.08741895907124389</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03198456117551208</v>
+        <v>0.03415260538091721</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5335112745.512607</v>
+        <v>4856912956.593395</v>
       </c>
       <c r="F64" t="n">
-        <v>0.156153318908221</v>
+        <v>0.1642550201577959</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02924864682016218</v>
+        <v>0.02462186617726397</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4795883668.74998</v>
+        <v>5097683284.725511</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1395588060535067</v>
+        <v>0.1569888882458309</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02339657832949855</v>
+        <v>0.02964927033844832</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4611362845.780314</v>
+        <v>5070410612.015065</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1195972910317164</v>
+        <v>0.1002621070182018</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05103798021647573</v>
+        <v>0.04571010141711256</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2442780618.326336</v>
+        <v>2649803167.662513</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08781142557387678</v>
+        <v>0.0983988326012209</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04360577239903338</v>
+        <v>0.03906537495703118</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3875654568.986434</v>
+        <v>4209554394.324851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.143238352231345</v>
+        <v>0.1064533657779539</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03397952451318315</v>
+        <v>0.05151153354450325</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2122153939.191521</v>
+        <v>2255329541.115477</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1616838736895403</v>
+        <v>0.1530663583581825</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05022460689987498</v>
+        <v>0.05216801746010377</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2627640744.477494</v>
+        <v>3512857856.979668</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0810435498164111</v>
+        <v>0.07081467594715755</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04861667547994882</v>
+        <v>0.03356886057052098</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4375056986.657891</v>
+        <v>4800388457.413213</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1317523269075545</v>
+        <v>0.1119061631995503</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03319516297770177</v>
+        <v>0.02712803918835572</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191645052.871176</v>
+        <v>2119566970.039403</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06856209154119049</v>
+        <v>0.08261343008069238</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05123104579454354</v>
+        <v>0.04820958928388724</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2531185402.601766</v>
+        <v>3178934892.673004</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08075504448509985</v>
+        <v>0.08861967970772146</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04045455203836569</v>
+        <v>0.05038939728181328</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2710945063.219226</v>
+        <v>2896008384.277643</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1712105223271821</v>
+        <v>0.1358082308819831</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03553911172255129</v>
+        <v>0.03261518524740203</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1601863621.49959</v>
+        <v>1539064382.159927</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1569662791566783</v>
+        <v>0.1589024408496079</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0278216753155383</v>
+        <v>0.03118667233926629</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4535323020.391594</v>
+        <v>3540403245.371214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1132779005508683</v>
+        <v>0.1160392127328774</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02967563010731237</v>
+        <v>0.02556257651613717</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1695199285.723269</v>
+        <v>1566742410.833535</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484555818304976</v>
+        <v>0.1366642133488102</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02876120138411833</v>
+        <v>0.02335439520207211</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4810062228.956622</v>
+        <v>4216653997.767159</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1149774722980345</v>
+        <v>0.09597551672180396</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03861234497566428</v>
+        <v>0.05022020748344039</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1810906331.660151</v>
+        <v>1902237307.967243</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1743922289431031</v>
+        <v>0.1316799862750195</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02989174180343596</v>
+        <v>0.03262846783612609</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4017974843.49441</v>
+        <v>3769528833.06242</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08962264825636301</v>
+        <v>0.1033294870063916</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02578335178863423</v>
+        <v>0.03223090581786554</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4121621865.0388</v>
+        <v>3575673448.680959</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1049691097193888</v>
+        <v>0.1075594741276256</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0329634848274326</v>
+        <v>0.02570645757789406</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4596009889.6141</v>
+        <v>4273491334.760431</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2074544450356362</v>
+        <v>0.1377382595046585</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02479101687278857</v>
+        <v>0.02739818328443041</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2164608901.039294</v>
+        <v>2096338294.353444</v>
       </c>
       <c r="F83" t="n">
-        <v>0.154474087046187</v>
+        <v>0.1392930529954837</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03419752802954711</v>
+        <v>0.03083069882834634</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1689737948.154121</v>
+        <v>2419663699.4726</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09055831612277314</v>
+        <v>0.08224834779113341</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03641030577049192</v>
+        <v>0.0366581171813154</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2452599470.219516</v>
+        <v>3239510812.628505</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1230131348603141</v>
+        <v>0.1619256518698294</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03719538713862947</v>
+        <v>0.04947135234657711</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2690697432.115273</v>
+        <v>2581299659.449211</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1246575848103374</v>
+        <v>0.1521474784769217</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0259899068844064</v>
+        <v>0.01820437114976</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1157861855.597514</v>
+        <v>1202883422.316739</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1726602995097194</v>
+        <v>0.1905097208226792</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03714396119454508</v>
+        <v>0.03141225334001763</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3552332780.660489</v>
+        <v>3634228979.055786</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1336907193239341</v>
+        <v>0.1684689974711683</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02519633216445529</v>
+        <v>0.02984725615654059</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2184421182.677622</v>
+        <v>3268022258.450295</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09967539474058813</v>
+        <v>0.09770259414387468</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03169477387863155</v>
+        <v>0.02903440936378144</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2089774812.145687</v>
+        <v>1746753381.914083</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1357380401057961</v>
+        <v>0.09493138963601679</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04122456082009334</v>
+        <v>0.044624935079731</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1796755997.682286</v>
+        <v>1292185402.803331</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1818060508821824</v>
+        <v>0.1772094758884018</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06149872802954751</v>
+        <v>0.03839364127003708</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2670084543.332422</v>
+        <v>2753440352.474983</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07245646008583759</v>
+        <v>0.08814667980715159</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02967858476336437</v>
+        <v>0.03544499581185966</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5031925998.713907</v>
+        <v>3632016854.815829</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09189776919200016</v>
+        <v>0.1314043288042796</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03851417112893205</v>
+        <v>0.03366241830412693</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2205797445.361534</v>
+        <v>1655767858.875361</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580942485653363</v>
+        <v>0.1350455588831615</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02842701356477674</v>
+        <v>0.03596896758121641</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2746630118.564718</v>
+        <v>2241226115.997823</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1027640557010473</v>
+        <v>0.1109766356346287</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04279396456571562</v>
+        <v>0.04316338211406685</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1795465168.165457</v>
+        <v>1828426042.98414</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362796605712235</v>
+        <v>0.09395478819288094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04121409023990141</v>
+        <v>0.04527794715546156</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4960680646.627562</v>
+        <v>4367845498.405695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1181553171739838</v>
+        <v>0.1544071808030121</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02111519055296979</v>
+        <v>0.02368219622683538</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3884916159.834841</v>
+        <v>2855468817.786637</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1123201878833324</v>
+        <v>0.0951419509709612</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03249615259910252</v>
+        <v>0.02819404352696325</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2963271951.361583</v>
+        <v>3407033618.256896</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105941538378699</v>
+        <v>0.1140303468543933</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03208778963368256</v>
+        <v>0.02664565118609702</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4797595965.713753</v>
+        <v>4624459879.516166</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1414388515764103</v>
+        <v>0.1104862166978097</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01773034339440503</v>
+        <v>0.02078728179873546</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3155349313.722577</v>
+        <v>2328803199.888675</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1683341781972775</v>
+        <v>0.1866055425837485</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05445193195734902</v>
+        <v>0.05264361574723816</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_336.xlsx
+++ b/output/fit_clients/fit_round_336.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2053785334.704746</v>
+        <v>2325850500.796927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09870123674350817</v>
+        <v>0.1035897765195259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04239906324418652</v>
+        <v>0.03018973070358081</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2601296266.620852</v>
+        <v>2041783942.017496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1315002288294049</v>
+        <v>0.1603731892176154</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0380351370656341</v>
+        <v>0.04908094313187166</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3523763915.571187</v>
+        <v>5074091667.001676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1356666307186096</v>
+        <v>0.1117601859689159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02327103003348391</v>
+        <v>0.03774594402966185</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>174</v>
+      </c>
+      <c r="J4" t="n">
+        <v>336</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3157411186.381824</v>
+        <v>3479533501.743012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07565613834481642</v>
+        <v>0.07884780464568068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04052612774118295</v>
+        <v>0.03121436941726496</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>133</v>
+      </c>
+      <c r="J5" t="n">
+        <v>336</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2334615138.624726</v>
+        <v>2444519937.204769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1195757513257556</v>
+        <v>0.1356125762185455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0436603915847712</v>
+        <v>0.03899370267282234</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2695661275.805936</v>
+        <v>2244382410.962604</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09870812220129946</v>
+        <v>0.08474810833540543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03122669758797317</v>
+        <v>0.041092905695995</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3082038121.635971</v>
+        <v>2568650065.267699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1842510055734236</v>
+        <v>0.1584675111906935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02826039568753859</v>
+        <v>0.02218447218173189</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2047279148.308869</v>
+        <v>1952495180.176645</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748117293150855</v>
+        <v>0.1393563966047529</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03214600088992692</v>
+        <v>0.03540679402963329</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4906733065.899871</v>
+        <v>5484057089.379651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1652475892615176</v>
+        <v>0.1382964912978052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04444740754721063</v>
+        <v>0.04428784796888296</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>288</v>
+      </c>
+      <c r="J10" t="n">
+        <v>336</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2697105399.029497</v>
+        <v>2800517432.785162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19123099908566</v>
+        <v>0.1820314637277528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04421557033609333</v>
+        <v>0.03892093264622087</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>137</v>
+      </c>
+      <c r="J11" t="n">
+        <v>335</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.02678818395722</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2597366877.713452</v>
+        <v>2727806542.943534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.197610389016217</v>
+        <v>0.165477484162571</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04928508251392779</v>
+        <v>0.04069251872348498</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4650241045.688949</v>
+        <v>4133895206.22014</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07816427181938829</v>
+        <v>0.08461261590775136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03045752719961432</v>
+        <v>0.02754767135596252</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>175</v>
+      </c>
+      <c r="J13" t="n">
+        <v>335</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.08561751166573</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3409994062.985028</v>
+        <v>3805284445.125506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1287227417340733</v>
+        <v>0.1486689827955727</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0414320179680211</v>
+        <v>0.04022612783535821</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1708024610.972448</v>
+        <v>1185168256.679838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09851696622797813</v>
+        <v>0.06751263172410078</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04632795698808306</v>
+        <v>0.03010947976608425</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2881528279.609954</v>
+        <v>2903761188.895123</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07841985641369201</v>
+        <v>0.08583696412137895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03379810476400726</v>
+        <v>0.05095417247220327</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3751146043.629138</v>
+        <v>4388403556.270523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1312878502013065</v>
+        <v>0.1399345094385499</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0354611967718922</v>
+        <v>0.0348197619166991</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>158</v>
+      </c>
+      <c r="J17" t="n">
+        <v>336</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2902656930.659167</v>
+        <v>3613143869.613526</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1576831586878527</v>
+        <v>0.1830158914962199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03044332460809874</v>
+        <v>0.02753791805394257</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1171524460.087599</v>
+        <v>1183175433.50886</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1688808047152566</v>
+        <v>0.1216965531257763</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02346284466801484</v>
+        <v>0.02432190088064315</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2090398073.926462</v>
+        <v>2135282834.949759</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1457982420019164</v>
+        <v>0.1417215983500413</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02908939110347323</v>
+        <v>0.0311380968286447</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1783910363.511907</v>
+        <v>2432975613.904776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08020132808719153</v>
+        <v>0.06702974954827069</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0426442138740141</v>
+        <v>0.03122601781254121</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2660207824.925272</v>
+        <v>2853478069.643764</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1390148190384533</v>
+        <v>0.09791867121463395</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03621218490049905</v>
+        <v>0.03879395219705011</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>982221690.8316824</v>
+        <v>1509478888.18428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1809266523222441</v>
+        <v>0.1439632685408797</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04992834005217579</v>
+        <v>0.034501633421811</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2585635582.38039</v>
+        <v>3059350816.996357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0994098803379983</v>
+        <v>0.09826599107878746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02591983195181552</v>
+        <v>0.03371860117696917</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1410124501.980896</v>
+        <v>1397525960.567326</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07827390223577411</v>
+        <v>0.1156840634842236</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02784430858987524</v>
+        <v>0.02338098455077411</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>904053270.787324</v>
+        <v>1149827106.68686</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1000417313713733</v>
+        <v>0.08961757856046652</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03472128741809244</v>
+        <v>0.03870387230765088</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3987049695.921633</v>
+        <v>4598805831.510932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.138730388564762</v>
+        <v>0.1101203568234274</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02478570622622261</v>
+        <v>0.0183840336766955</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>140</v>
+      </c>
+      <c r="J27" t="n">
+        <v>336</v>
+      </c>
+      <c r="K27" t="n">
+        <v>69.78016459359458</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1417,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3068068734.943802</v>
+        <v>2462848614.093553</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1279404848892413</v>
+        <v>0.1158887249727645</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04120485361860069</v>
+        <v>0.04593360142938092</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>73</v>
+      </c>
+      <c r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40.75631139457212</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3592348666.444828</v>
+        <v>5939410550.547513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1471824034116991</v>
+        <v>0.1161190774969799</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03295278411451107</v>
+        <v>0.03431538302663358</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>305</v>
+      </c>
+      <c r="J29" t="n">
+        <v>336</v>
+      </c>
+      <c r="K29" t="n">
+        <v>71.36426249357599</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2282290564.763395</v>
+        <v>1575148511.186594</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1283529458561002</v>
+        <v>0.1241482495089278</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03592184324325685</v>
+        <v>0.03356005017950655</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1381618768.170193</v>
+        <v>910308490.4838661</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07195426853423413</v>
+        <v>0.06751903170796476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04999086485082061</v>
+        <v>0.04878260098604589</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1878992010.188632</v>
+        <v>1175284849.27763</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1065254290529592</v>
+        <v>0.1143979542580187</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02375495275184907</v>
+        <v>0.02500272969603096</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2654913273.736557</v>
+        <v>2411469715.638225</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1749827930993126</v>
+        <v>0.1754513620936332</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0373683499343247</v>
+        <v>0.06092725518974645</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1097340162.008547</v>
+        <v>1555393155.907948</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09961825218736865</v>
+        <v>0.0844753979396406</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762173782710124</v>
+        <v>0.01735667085116173</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1038033100.838481</v>
+        <v>1083818743.987274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029326719860182</v>
+        <v>0.1078056793270993</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04241588779066257</v>
+        <v>0.02961674428627273</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2556291787.171944</v>
+        <v>2005052764.880306</v>
       </c>
       <c r="F36" t="n">
-        <v>0.120591917858775</v>
+        <v>0.1720412153535567</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01774201570189632</v>
+        <v>0.02436327516819102</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1796870728.886396</v>
+        <v>2881996728.059926</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08275899461167757</v>
+        <v>0.09440232480867111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04195082214670973</v>
+        <v>0.03919949965791278</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1584981361.64639</v>
+        <v>1571451136.403155</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07394266605784813</v>
+        <v>0.07818313957245825</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0383066389459787</v>
+        <v>0.03026978076373021</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2135723827.756144</v>
+        <v>2012366751.163023</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1438460224539822</v>
+        <v>0.1834625080318793</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02745949006893282</v>
+        <v>0.03129877276832125</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1559861125.71377</v>
+        <v>1230777657.755471</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09997918194236549</v>
+        <v>0.1186954869030287</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05330873695442173</v>
+        <v>0.05010101717937079</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1946243493.611855</v>
+        <v>2387050587.970892</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1263325856177218</v>
+        <v>0.1039185909458764</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02917970716693146</v>
+        <v>0.04189430435140325</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3616518976.414776</v>
+        <v>4159932415.548041</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1154039287374503</v>
+        <v>0.1170010675092089</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03708970167425234</v>
+        <v>0.03851555240710765</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>143</v>
+      </c>
+      <c r="J42" t="n">
+        <v>336</v>
+      </c>
+      <c r="K42" t="n">
+        <v>78.72922131106689</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2163742509.119535</v>
+        <v>2540985909.525012</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1980542231998348</v>
+        <v>0.1312847465922607</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01867585686734662</v>
+        <v>0.02175025081215298</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1671662030.086799</v>
+        <v>1490644948.967394</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08140736513669067</v>
+        <v>0.08337514469000762</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02447885427496258</v>
+        <v>0.02595364566418388</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1654238837.055465</v>
+        <v>1772075585.581119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1427108787273704</v>
+        <v>0.1243248760167093</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03796217230726311</v>
+        <v>0.04466979580000385</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5720034564.851583</v>
+        <v>3825409555.305849</v>
       </c>
       <c r="F46" t="n">
-        <v>0.149228590041999</v>
+        <v>0.1417198349547713</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03695351816525166</v>
+        <v>0.03983545197708054</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>200</v>
+      </c>
+      <c r="J46" t="n">
+        <v>336</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4829796993.136945</v>
+        <v>4626695147.60551</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1628743645548504</v>
+        <v>0.1873789214875463</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05893211968381578</v>
+        <v>0.04685502090822062</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>149</v>
+      </c>
+      <c r="J47" t="n">
+        <v>336</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3025886172.555212</v>
+        <v>4640136495.989751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09696255384425269</v>
+        <v>0.08713949978316307</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0351964193812163</v>
+        <v>0.03660298502858204</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>166</v>
+      </c>
+      <c r="J48" t="n">
+        <v>336</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1290877694.951231</v>
+        <v>1278093445.362945</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1507569820048949</v>
+        <v>0.1341722547155735</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04152693331849284</v>
+        <v>0.04006214575829274</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3233768063.367013</v>
+        <v>3558582736.846377</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1757341832051607</v>
+        <v>0.1260746522509276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04290057920466359</v>
+        <v>0.04644961717050807</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>110</v>
+      </c>
+      <c r="J50" t="n">
+        <v>336</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>940751241.962746</v>
+        <v>970111639.6967345</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1330013364320389</v>
+        <v>0.1780935818895974</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04183418123117994</v>
+        <v>0.04943735184988023</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4227302508.441287</v>
+        <v>3241206382.157013</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1298114202890778</v>
+        <v>0.08541042110990656</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03863710810648519</v>
+        <v>0.05512460588137646</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>202</v>
+      </c>
+      <c r="J52" t="n">
+        <v>334</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2820924092.229786</v>
+        <v>3256347153.222952</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1484022074632205</v>
+        <v>0.1890348321720167</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0231661310834949</v>
+        <v>0.02595345627847837</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335</v>
+      </c>
+      <c r="K53" t="n">
+        <v>68.91953858534961</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4392577394.482079</v>
+        <v>3298672149.897292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1670433648016144</v>
+        <v>0.1338453571798594</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04003405025654522</v>
+        <v>0.03537863559614224</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>178</v>
+      </c>
+      <c r="J54" t="n">
+        <v>335</v>
+      </c>
+      <c r="K54" t="n">
+        <v>59.69694936635253</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4482185677.794371</v>
+        <v>3662799880.582087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1769200648678218</v>
+        <v>0.2194094997448177</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0215111691976825</v>
+        <v>0.01977401656507667</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>159</v>
+      </c>
+      <c r="J55" t="n">
+        <v>336</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1342163340.600656</v>
+        <v>1330986618.738697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1537515213914116</v>
+        <v>0.1425876792199779</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05022073450499576</v>
+        <v>0.04278152640823687</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4028139471.407586</v>
+        <v>3382327077.310315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1815871394772714</v>
+        <v>0.1535945996340202</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02477816291700283</v>
+        <v>0.01847530121990553</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>137</v>
+      </c>
+      <c r="J57" t="n">
+        <v>334</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1332719238.968549</v>
+        <v>1654064409.226729</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1359878825751114</v>
+        <v>0.1624888414532355</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0248962241762558</v>
+        <v>0.03727133503525969</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5130643210.444258</v>
+        <v>5252364131.626216</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08222499242352821</v>
+        <v>0.1203656005587455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03979413506454434</v>
+        <v>0.03632923846783596</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>162</v>
+      </c>
+      <c r="J59" t="n">
+        <v>335</v>
+      </c>
+      <c r="K59" t="n">
+        <v>68.94827831122325</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2540246525.540605</v>
+        <v>2675723935.295435</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1580271579927794</v>
+        <v>0.1725580517430546</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02178513694495293</v>
+        <v>0.02828825407263536</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2490653451.912985</v>
+        <v>2740917650.500936</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1490955309208822</v>
+        <v>0.1679782568016682</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02693204960251478</v>
+        <v>0.03141025067532024</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1982353646.231308</v>
+        <v>1964690561.93972</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1564061924160958</v>
+        <v>0.1723377806776823</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04049790661456027</v>
+        <v>0.03358832032515627</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3905209229.727097</v>
+        <v>5375846198.275095</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08741895907124389</v>
+        <v>0.1016592554591852</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03415260538091721</v>
+        <v>0.04175636152836212</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>164</v>
+      </c>
+      <c r="J63" t="n">
+        <v>336</v>
+      </c>
+      <c r="K63" t="n">
+        <v>69.64981090953515</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2691,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4856912956.593395</v>
+        <v>5466603045.996957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1642550201577959</v>
+        <v>0.1437664337414007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02462186617726397</v>
+        <v>0.03223580351881772</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>166</v>
+      </c>
+      <c r="J64" t="n">
+        <v>336</v>
+      </c>
+      <c r="K64" t="n">
+        <v>69.30732614419264</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5097683284.725511</v>
+        <v>4742922020.103702</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1569888882458309</v>
+        <v>0.1571804140387246</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02964927033844832</v>
+        <v>0.02486021006811695</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>261</v>
+      </c>
+      <c r="J65" t="n">
+        <v>336</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5070410612.015065</v>
+        <v>3551075232.752896</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1002621070182018</v>
+        <v>0.1026171684210724</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04571010141711256</v>
+        <v>0.04460579471829969</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>166</v>
+      </c>
+      <c r="J66" t="n">
+        <v>335</v>
+      </c>
+      <c r="K66" t="n">
+        <v>64.35445882397713</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2649803167.662513</v>
+        <v>3175510186.573889</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0983988326012209</v>
+        <v>0.09349495861513706</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03906537495703118</v>
+        <v>0.03715626582334544</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4209554394.324851</v>
+        <v>3820852950.445295</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1064533657779539</v>
+        <v>0.1156453855899717</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05151153354450325</v>
+        <v>0.03391853401178268</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>183</v>
+      </c>
+      <c r="J68" t="n">
+        <v>335</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.42458378209415</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2255329541.115477</v>
+        <v>2459933728.888886</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1530663583581825</v>
+        <v>0.1177427259265118</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05216801746010377</v>
+        <v>0.03920982183609174</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3512857856.979668</v>
+        <v>2646110889.108845</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07081467594715755</v>
+        <v>0.07927282519986373</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03356886057052098</v>
+        <v>0.03862703285015145</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2942,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4800388457.413213</v>
+        <v>3698474248.816662</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1119061631995503</v>
+        <v>0.1512661252087826</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02712803918835572</v>
+        <v>0.02734453077077506</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>247</v>
+      </c>
+      <c r="J71" t="n">
+        <v>336</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2119566970.039403</v>
+        <v>1680836263.802144</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08261343008069238</v>
+        <v>0.09964667531954209</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04820958928388724</v>
+        <v>0.03960082928273258</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3178934892.673004</v>
+        <v>3163830433.161423</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08861967970772146</v>
+        <v>0.07268467842497978</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05038939728181328</v>
+        <v>0.04492546636301383</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2896008384.277643</v>
+        <v>3056929816.629927</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1358082308819831</v>
+        <v>0.1160720535902614</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03261518524740203</v>
+        <v>0.02195808071348434</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>335</v>
+      </c>
+      <c r="K74" t="n">
+        <v>62.72156561539332</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1539064382.159927</v>
+        <v>2056530082.54291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1589024408496079</v>
+        <v>0.1193736384867282</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03118667233926629</v>
+        <v>0.03230115853095072</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3540403245.371214</v>
+        <v>5069736511.072938</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1160392127328774</v>
+        <v>0.1164955807887878</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556257651613717</v>
+        <v>0.0327713856790893</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>158</v>
+      </c>
+      <c r="J76" t="n">
+        <v>336</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1566742410.833535</v>
+        <v>2275801227.296626</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1366642133488102</v>
+        <v>0.1649224204047998</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02335439520207211</v>
+        <v>0.02689950413625642</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4216653997.767159</v>
+        <v>3102891272.070823</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09597551672180396</v>
+        <v>0.1306828587743675</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05022020748344039</v>
+        <v>0.05185671799557922</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>165</v>
+      </c>
+      <c r="J78" t="n">
+        <v>335</v>
+      </c>
+      <c r="K78" t="n">
+        <v>54.66638281882791</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1902237307.967243</v>
+        <v>1358489275.280092</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1316799862750195</v>
+        <v>0.1278919560724269</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03262846783612609</v>
+        <v>0.03800479728158297</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3769528833.06242</v>
+        <v>4259245314.878138</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1033294870063916</v>
+        <v>0.07281793791515878</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03223090581786554</v>
+        <v>0.03811897286450541</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>164</v>
+      </c>
+      <c r="J80" t="n">
+        <v>336</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3575673448.680959</v>
+        <v>3602862001.737484</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1075594741276256</v>
+        <v>0.1272213023442909</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02570645757789406</v>
+        <v>0.02136364156516404</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>155</v>
+      </c>
+      <c r="J81" t="n">
+        <v>335</v>
+      </c>
+      <c r="K81" t="n">
+        <v>63.48107867494085</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4273491334.760431</v>
+        <v>4777598933.087127</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1377382595046585</v>
+        <v>0.1457721516060352</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02739818328443041</v>
+        <v>0.01904020474090327</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>241</v>
+      </c>
+      <c r="J82" t="n">
+        <v>335</v>
+      </c>
+      <c r="K82" t="n">
+        <v>68.17225709070844</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2096338294.353444</v>
+        <v>1966694086.467557</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1392930529954837</v>
+        <v>0.1326758415863418</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03083069882834634</v>
+        <v>0.02827989859720095</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2419663699.4726</v>
+        <v>2311325183.239866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08224834779113341</v>
+        <v>0.1032011356973665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0366581171813154</v>
+        <v>0.04952250766960386</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3239510812.628505</v>
+        <v>2427610689.107676</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1619256518698294</v>
+        <v>0.1453226362436334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04947135234657711</v>
+        <v>0.05453806166127082</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2581299659.449211</v>
+        <v>1780841625.221176</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1521474784769217</v>
+        <v>0.1671768263587866</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01820437114976</v>
+        <v>0.02247331924698375</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1202883422.316739</v>
+        <v>1361886259.098957</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1905097208226792</v>
+        <v>0.1278920743856919</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03141225334001763</v>
+        <v>0.04016008446589222</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3634228979.055786</v>
+        <v>2797580829.308893</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684689974711683</v>
+        <v>0.1255342835203235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02984725615654059</v>
+        <v>0.0344610706401723</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3268022258.450295</v>
+        <v>3276554728.925845</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09770259414387468</v>
+        <v>0.1205274326671463</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02903440936378144</v>
+        <v>0.03321261639040274</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1746753381.914083</v>
+        <v>1327903749.044576</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09493138963601679</v>
+        <v>0.1307118856746939</v>
       </c>
       <c r="G90" t="n">
-        <v>0.044624935079731</v>
+        <v>0.05391177790494069</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1292185402.803331</v>
+        <v>1561510475.444524</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1772094758884018</v>
+        <v>0.1239593683900918</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03839364127003708</v>
+        <v>0.04485992634253565</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2753440352.474983</v>
+        <v>2919677635.130512</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08814667980715159</v>
+        <v>0.07463900781961075</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03544499581185966</v>
+        <v>0.04571077351144927</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3632016854.815829</v>
+        <v>3359297387.959682</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1314043288042796</v>
+        <v>0.1343258025719048</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03366241830412693</v>
+        <v>0.05320455410635159</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>154</v>
+      </c>
+      <c r="J93" t="n">
+        <v>334</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1655767858.875361</v>
+        <v>2052825390.688411</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1350455588831615</v>
+        <v>0.1247625745277591</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03596896758121641</v>
+        <v>0.04195460767733249</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2241226115.997823</v>
+        <v>2342896105.543477</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1109766356346287</v>
+        <v>0.1370429390656386</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04316338211406685</v>
+        <v>0.03617414485147997</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1828426042.98414</v>
+        <v>2284151887.373979</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09395478819288094</v>
+        <v>0.1133724882762882</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04527794715546156</v>
+        <v>0.03137363143764906</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4367845498.405695</v>
+        <v>3514191961.57647</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1544071808030121</v>
+        <v>0.1405466068437229</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02368219622683538</v>
+        <v>0.02624301230023311</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>173</v>
+      </c>
+      <c r="J97" t="n">
+        <v>335</v>
+      </c>
+      <c r="K97" t="n">
+        <v>67.03282730643286</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2855468817.786637</v>
+        <v>3066916416.623354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0951419509709612</v>
+        <v>0.1033525152430934</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02819404352696325</v>
+        <v>0.02737793781476582</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>84</v>
+      </c>
+      <c r="J98" t="n">
+        <v>335</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.00979123036302</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3407033618.256896</v>
+        <v>2961045439.746327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1140303468543933</v>
+        <v>0.1169335598583903</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02664565118609702</v>
+        <v>0.03303876392508723</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4624459879.516166</v>
+        <v>3009947320.089422</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1104862166978097</v>
+        <v>0.1792805813731519</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02078728179873546</v>
+        <v>0.02554630608872653</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>151</v>
+      </c>
+      <c r="J100" t="n">
+        <v>335</v>
+      </c>
+      <c r="K100" t="n">
+        <v>50.06165445637145</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2328803199.888675</v>
+        <v>3027075457.361273</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1866055425837485</v>
+        <v>0.1722194748033345</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05264361574723816</v>
+        <v>0.05353214915571109</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
